--- a/Code/Results/Cases/Case_1_133/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_133/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008831520492335</v>
+        <v>1.04392369179643</v>
       </c>
       <c r="D2">
-        <v>1.041985763050827</v>
+        <v>1.043364074513166</v>
       </c>
       <c r="E2">
-        <v>1.020333252935922</v>
+        <v>1.050832353931925</v>
       </c>
       <c r="F2">
-        <v>1.023152459288091</v>
+        <v>1.059253070185213</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054498626192491</v>
+        <v>1.042512664174057</v>
       </c>
       <c r="J2">
-        <v>1.030751253187975</v>
+        <v>1.048991534437422</v>
       </c>
       <c r="K2">
-        <v>1.052889590636058</v>
+        <v>1.046138149082773</v>
       </c>
       <c r="L2">
-        <v>1.031516398789948</v>
+        <v>1.053585536458262</v>
       </c>
       <c r="M2">
-        <v>1.034298398162137</v>
+        <v>1.061983079034576</v>
       </c>
       <c r="N2">
-        <v>1.013579208050515</v>
+        <v>1.020131371447747</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014755196581308</v>
+        <v>1.045133271871064</v>
       </c>
       <c r="D3">
-        <v>1.045351942462039</v>
+        <v>1.044020259616436</v>
       </c>
       <c r="E3">
-        <v>1.025517065744644</v>
+        <v>1.051945613268927</v>
       </c>
       <c r="F3">
-        <v>1.029050184314441</v>
+        <v>1.06053905461577</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05644908014071</v>
+        <v>1.042818860456435</v>
       </c>
       <c r="J3">
-        <v>1.034851545339799</v>
+        <v>1.049846871600676</v>
       </c>
       <c r="K3">
-        <v>1.055435646522798</v>
+        <v>1.046605759135271</v>
       </c>
       <c r="L3">
-        <v>1.035833538203123</v>
+        <v>1.054510546737093</v>
       </c>
       <c r="M3">
-        <v>1.039324380405782</v>
+        <v>1.063082062818689</v>
       </c>
       <c r="N3">
-        <v>1.014993130023174</v>
+        <v>1.020421704973886</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018491600002429</v>
+        <v>1.045915515579285</v>
       </c>
       <c r="D4">
-        <v>1.047477819763543</v>
+        <v>1.044444316176806</v>
       </c>
       <c r="E4">
-        <v>1.028793041788364</v>
+        <v>1.052665948803083</v>
       </c>
       <c r="F4">
-        <v>1.032778659006628</v>
+        <v>1.061371442928274</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057667129105419</v>
+        <v>1.043015292385641</v>
       </c>
       <c r="J4">
-        <v>1.037433831738494</v>
+        <v>1.050399382343965</v>
       </c>
       <c r="K4">
-        <v>1.057035105804979</v>
+        <v>1.046907111971836</v>
       </c>
       <c r="L4">
-        <v>1.038555949196753</v>
+        <v>1.055108484987343</v>
       </c>
       <c r="M4">
-        <v>1.042496937709354</v>
+        <v>1.063792894855228</v>
       </c>
       <c r="N4">
-        <v>1.015882979545529</v>
+        <v>1.020609090317929</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020040305709623</v>
+        <v>1.046244268739252</v>
       </c>
       <c r="D5">
-        <v>1.048359469659395</v>
+        <v>1.044622459960051</v>
       </c>
       <c r="E5">
-        <v>1.030152349012234</v>
+        <v>1.052968775026471</v>
       </c>
       <c r="F5">
-        <v>1.034326066126175</v>
+        <v>1.061721445578018</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05816899866811</v>
+        <v>1.043097466150268</v>
       </c>
       <c r="J5">
-        <v>1.038503158317938</v>
+        <v>1.050631431758793</v>
       </c>
       <c r="K5">
-        <v>1.057696410417425</v>
+        <v>1.047033507948724</v>
       </c>
       <c r="L5">
-        <v>1.039684158562055</v>
+        <v>1.055359714626285</v>
       </c>
       <c r="M5">
-        <v>1.043812461626032</v>
+        <v>1.064091662267457</v>
       </c>
       <c r="N5">
-        <v>1.016251309171114</v>
+        <v>1.020687752561006</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020299074782406</v>
+        <v>1.046299461917217</v>
       </c>
       <c r="D6">
-        <v>1.04850680721513</v>
+        <v>1.044652363469797</v>
       </c>
       <c r="E6">
-        <v>1.03037955541979</v>
+        <v>1.053019620756293</v>
       </c>
       <c r="F6">
-        <v>1.034584734068651</v>
+        <v>1.061780216522937</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05825267626053</v>
+        <v>1.043111239671117</v>
       </c>
       <c r="J6">
-        <v>1.038681768613294</v>
+        <v>1.050670380653661</v>
       </c>
       <c r="K6">
-        <v>1.057806805736744</v>
+        <v>1.047054713216884</v>
       </c>
       <c r="L6">
-        <v>1.039872654595238</v>
+        <v>1.055401888804906</v>
       </c>
       <c r="M6">
-        <v>1.044032298757663</v>
+        <v>1.064141822784857</v>
       </c>
       <c r="N6">
-        <v>1.01631282191749</v>
+        <v>1.020700953589552</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018512379297942</v>
+        <v>1.045919908793571</v>
       </c>
       <c r="D7">
-        <v>1.047489647267771</v>
+        <v>1.044446697052676</v>
       </c>
       <c r="E7">
-        <v>1.028811274243627</v>
+        <v>1.0526699951913</v>
       </c>
       <c r="F7">
-        <v>1.032799413065628</v>
+        <v>1.061376119416775</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057673874747223</v>
+        <v>1.04301639199146</v>
       </c>
       <c r="J7">
-        <v>1.037448183154861</v>
+        <v>1.050402483886502</v>
       </c>
       <c r="K7">
-        <v>1.057043985344257</v>
+        <v>1.046908802031633</v>
       </c>
       <c r="L7">
-        <v>1.038571087482811</v>
+        <v>1.055111842492721</v>
       </c>
       <c r="M7">
-        <v>1.042514586328786</v>
+        <v>1.063796887258831</v>
       </c>
       <c r="N7">
-        <v>1.015887923529973</v>
+        <v>1.020610141856395</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010854113800273</v>
+        <v>1.044332566517252</v>
       </c>
       <c r="D8">
-        <v>1.043134477220903</v>
+        <v>1.043585946640835</v>
       </c>
       <c r="E8">
-        <v>1.022101876882829</v>
+        <v>1.051208589647129</v>
       </c>
       <c r="F8">
-        <v>1.025164392244411</v>
+        <v>1.05968761978449</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055167119824753</v>
+        <v>1.042616496235983</v>
       </c>
       <c r="J8">
-        <v>1.032152078922199</v>
+        <v>1.049280797000884</v>
       </c>
       <c r="K8">
-        <v>1.053760222829671</v>
+        <v>1.04629643303871</v>
       </c>
       <c r="L8">
-        <v>1.032990560755913</v>
+        <v>1.053898274117211</v>
       </c>
       <c r="M8">
-        <v>1.036013952120036</v>
+        <v>1.062354545512511</v>
       </c>
       <c r="N8">
-        <v>1.014062383095178</v>
+        <v>1.020229590576506</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9965681978323019</v>
+        <v>1.041532034184943</v>
       </c>
       <c r="D9">
-        <v>1.035038343086492</v>
+        <v>1.042065088661523</v>
       </c>
       <c r="E9">
-        <v>1.009639008893634</v>
+        <v>1.048633207495822</v>
       </c>
       <c r="F9">
-        <v>1.010991651750019</v>
+        <v>1.056714254407486</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050396116549215</v>
+        <v>1.041898819251203</v>
       </c>
       <c r="J9">
-        <v>1.022242726637608</v>
+        <v>1.047296912838042</v>
       </c>
       <c r="K9">
-        <v>1.047587421867818</v>
+        <v>1.045208007454185</v>
       </c>
       <c r="L9">
-        <v>1.022577611986906</v>
+        <v>1.051755117469668</v>
       </c>
       <c r="M9">
-        <v>1.023908879183736</v>
+        <v>1.059810707972165</v>
       </c>
       <c r="N9">
-        <v>1.010642272424812</v>
+        <v>1.019555320693144</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9864340416067524</v>
+        <v>1.039662566536752</v>
       </c>
       <c r="D10">
-        <v>1.029324690289149</v>
+        <v>1.041048451228609</v>
       </c>
       <c r="E10">
-        <v>1.000838402473849</v>
+        <v>1.046916061135404</v>
       </c>
       <c r="F10">
-        <v>1.000988284417968</v>
+        <v>1.054733226213204</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046952219508392</v>
+        <v>1.041411607306655</v>
       </c>
       <c r="J10">
-        <v>1.015196429924287</v>
+        <v>1.045969315643255</v>
       </c>
       <c r="K10">
-        <v>1.043183922555341</v>
+        <v>1.044476108725169</v>
       </c>
       <c r="L10">
-        <v>1.015192535786954</v>
+        <v>1.050323105981294</v>
       </c>
       <c r="M10">
-        <v>1.015339717981519</v>
+        <v>1.058113201806891</v>
       </c>
       <c r="N10">
-        <v>1.008208093162181</v>
+        <v>1.019103304961541</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9818813445399353</v>
+        <v>1.038852454672914</v>
       </c>
       <c r="D11">
-        <v>1.02676745465413</v>
+        <v>1.040607593155805</v>
       </c>
       <c r="E11">
-        <v>0.9968954346508579</v>
+        <v>1.046172443318024</v>
       </c>
       <c r="F11">
-        <v>0.9965071072707254</v>
+        <v>1.053875679804079</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045392166387929</v>
+        <v>1.041198557590277</v>
       </c>
       <c r="J11">
-        <v>1.012027801396814</v>
+        <v>1.045393244960928</v>
       </c>
       <c r="K11">
-        <v>1.041201634710735</v>
+        <v>1.044157699222684</v>
       </c>
       <c r="L11">
-        <v>1.011876136980742</v>
+        <v>1.04970224110214</v>
       </c>
       <c r="M11">
-        <v>1.011495196423462</v>
+        <v>1.057377756109588</v>
       </c>
       <c r="N11">
-        <v>1.007113128218462</v>
+        <v>1.018906978491213</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9801636649245546</v>
+        <v>1.038551447083512</v>
       </c>
       <c r="D12">
-        <v>1.02580431438604</v>
+        <v>1.040443741906396</v>
       </c>
       <c r="E12">
-        <v>0.9954094977102109</v>
+        <v>1.045896216294295</v>
       </c>
       <c r="F12">
-        <v>0.9948184018874171</v>
+        <v>1.053557184249825</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044801747588059</v>
+        <v>1.041119107983828</v>
       </c>
       <c r="J12">
-        <v>1.010831923669199</v>
+        <v>1.045179082812338</v>
       </c>
       <c r="K12">
-        <v>1.040453297795904</v>
+        <v>1.044039203475043</v>
       </c>
       <c r="L12">
-        <v>1.010625176126465</v>
+        <v>1.049471503107073</v>
       </c>
       <c r="M12">
-        <v>1.010045551017726</v>
+        <v>1.057104514430049</v>
       </c>
       <c r="N12">
-        <v>1.006699839845089</v>
+        <v>1.018833963372751</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9805333493442386</v>
+        <v>1.038616018621598</v>
       </c>
       <c r="D13">
-        <v>1.026011524878185</v>
+        <v>1.040478892936867</v>
       </c>
       <c r="E13">
-        <v>0.9957292273298155</v>
+        <v>1.045955468604645</v>
       </c>
       <c r="F13">
-        <v>0.995181759256983</v>
+        <v>1.053625501066931</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044928900114109</v>
+        <v>1.04113616438511</v>
       </c>
       <c r="J13">
-        <v>1.011089320563038</v>
+        <v>1.045225029667211</v>
       </c>
       <c r="K13">
-        <v>1.040614374440409</v>
+        <v>1.044064631365193</v>
       </c>
       <c r="L13">
-        <v>1.010894397907363</v>
+        <v>1.049521002700508</v>
       </c>
       <c r="M13">
-        <v>1.010357508635322</v>
+        <v>1.057163128646855</v>
       </c>
       <c r="N13">
-        <v>1.006788796053638</v>
+        <v>1.018849629476815</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9817399149262616</v>
+        <v>1.038827575265838</v>
       </c>
       <c r="D14">
-        <v>1.026688116581939</v>
+        <v>1.040594051135955</v>
       </c>
       <c r="E14">
-        <v>0.9967730510787923</v>
+        <v>1.046149610608047</v>
       </c>
       <c r="F14">
-        <v>0.9963680224746891</v>
+        <v>1.053849352155145</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04534358918621</v>
+        <v>1.041191996657753</v>
       </c>
       <c r="J14">
-        <v>1.01192934315777</v>
+        <v>1.045375546011263</v>
       </c>
       <c r="K14">
-        <v>1.041140026442065</v>
+        <v>1.044147908902789</v>
       </c>
       <c r="L14">
-        <v>1.011773129725013</v>
+        <v>1.049683170708912</v>
       </c>
       <c r="M14">
-        <v>1.01137581840954</v>
+        <v>1.057355171193388</v>
       </c>
       <c r="N14">
-        <v>1.00707910225296</v>
+        <v>1.018900944892319</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9824797347242265</v>
+        <v>1.038957909494743</v>
       </c>
       <c r="D15">
-        <v>1.027103204478804</v>
+        <v>1.040664991068235</v>
       </c>
       <c r="E15">
-        <v>0.9974133105877611</v>
+        <v>1.046269225957079</v>
       </c>
       <c r="F15">
-        <v>0.997095657965095</v>
+        <v>1.053987278810492</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045597623286935</v>
+        <v>1.041226355215667</v>
       </c>
       <c r="J15">
-        <v>1.012444363815081</v>
+        <v>1.04546825968567</v>
       </c>
       <c r="K15">
-        <v>1.041462282937489</v>
+        <v>1.044199189221224</v>
       </c>
       <c r="L15">
-        <v>1.012311973583341</v>
+        <v>1.049783071666259</v>
       </c>
       <c r="M15">
-        <v>1.01200032105097</v>
+        <v>1.057473486346058</v>
       </c>
       <c r="N15">
-        <v>1.00725708575103</v>
+        <v>1.018932549976923</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9867325658351735</v>
+        <v>1.039716317689242</v>
       </c>
       <c r="D16">
-        <v>1.029492588743106</v>
+        <v>1.041077695916018</v>
       </c>
       <c r="E16">
-        <v>1.001097175375308</v>
+        <v>1.046965410707186</v>
       </c>
       <c r="F16">
-        <v>1.00128238997506</v>
+        <v>1.054790143839594</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047054254697595</v>
+        <v>1.041425702778963</v>
       </c>
       <c r="J16">
-        <v>1.015404141149656</v>
+        <v>1.046007521869096</v>
       </c>
       <c r="K16">
-        <v>1.043313832491181</v>
+        <v>1.044497209065678</v>
       </c>
       <c r="L16">
-        <v>1.015410028611422</v>
+        <v>1.050364293848806</v>
       </c>
       <c r="M16">
-        <v>1.015591919225181</v>
+        <v>1.058162002002658</v>
       </c>
       <c r="N16">
-        <v>1.00827986491965</v>
+        <v>1.019116321806235</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9893549299082917</v>
+        <v>1.040191879123645</v>
       </c>
       <c r="D17">
-        <v>1.030968592614633</v>
+        <v>1.041336401681378</v>
       </c>
       <c r="E17">
-        <v>1.003371563633125</v>
+        <v>1.047402085670814</v>
       </c>
       <c r="F17">
-        <v>1.003867392680643</v>
+        <v>1.0552938255481</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047949125663134</v>
+        <v>1.041550190085094</v>
       </c>
       <c r="J17">
-        <v>1.017228419436228</v>
+        <v>1.0463454610094</v>
       </c>
       <c r="K17">
-        <v>1.044454577062318</v>
+        <v>1.044683749419313</v>
       </c>
       <c r="L17">
-        <v>1.017320734253861</v>
+        <v>1.050728665217579</v>
       </c>
       <c r="M17">
-        <v>1.017807950594049</v>
+        <v>1.058593777238362</v>
       </c>
       <c r="N17">
-        <v>1.008910181908477</v>
+        <v>1.019231435862619</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9908687716875771</v>
+        <v>1.040469206430176</v>
       </c>
       <c r="D18">
-        <v>1.031821550188241</v>
+        <v>1.041487237896755</v>
       </c>
       <c r="E18">
-        <v>1.004685522842875</v>
+        <v>1.047656782997913</v>
       </c>
       <c r="F18">
-        <v>1.005360865981574</v>
+        <v>1.055587639038045</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04846449224681</v>
+        <v>1.041622600402846</v>
       </c>
       <c r="J18">
-        <v>1.018281240309551</v>
+        <v>1.046542458336429</v>
       </c>
       <c r="K18">
-        <v>1.045112714249641</v>
+        <v>1.044792411249284</v>
       </c>
       <c r="L18">
-        <v>1.018423865240744</v>
+        <v>1.050941120340433</v>
       </c>
       <c r="M18">
-        <v>1.019087701083008</v>
+        <v>1.05884558459895</v>
       </c>
       <c r="N18">
-        <v>1.009273914426056</v>
+        <v>1.019298522020684</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9913823372268297</v>
+        <v>1.040563757844924</v>
       </c>
       <c r="D19">
-        <v>1.032111057007772</v>
+        <v>1.041538658539963</v>
       </c>
       <c r="E19">
-        <v>1.005131445263704</v>
+        <v>1.047743626940445</v>
       </c>
       <c r="F19">
-        <v>1.005867723001869</v>
+        <v>1.055687826070278</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048639117500826</v>
+        <v>1.041647256364906</v>
       </c>
       <c r="J19">
-        <v>1.018638352823908</v>
+        <v>1.0466096095644</v>
       </c>
       <c r="K19">
-        <v>1.045335913556538</v>
+        <v>1.044829437700871</v>
       </c>
       <c r="L19">
-        <v>1.01879811594158</v>
+        <v>1.051013549119085</v>
       </c>
       <c r="M19">
-        <v>1.019521930623334</v>
+        <v>1.058931437710452</v>
       </c>
       <c r="N19">
-        <v>1.009397284809605</v>
+        <v>1.019321386856461</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.989075216018685</v>
+        <v>1.040140862072076</v>
       </c>
       <c r="D20">
-        <v>1.030811061141508</v>
+        <v>1.041308651461977</v>
       </c>
       <c r="E20">
-        <v>1.00312886225062</v>
+        <v>1.047355235400691</v>
       </c>
       <c r="F20">
-        <v>1.003591538867561</v>
+        <v>1.055239782755544</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047853800976504</v>
+        <v>1.041536854571217</v>
       </c>
       <c r="J20">
-        <v>1.017033863897165</v>
+        <v>1.0463092154381</v>
       </c>
       <c r="K20">
-        <v>1.04433293950498</v>
+        <v>1.044663750300425</v>
       </c>
       <c r="L20">
-        <v>1.017116916605066</v>
+        <v>1.050689579547932</v>
       </c>
       <c r="M20">
-        <v>1.017571528015903</v>
+        <v>1.058547455978251</v>
       </c>
       <c r="N20">
-        <v>1.008842963285352</v>
+        <v>1.019219091208887</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9813853619703892</v>
+        <v>1.038765279779038</v>
       </c>
       <c r="D21">
-        <v>1.026489250039385</v>
+        <v>1.040560142589804</v>
       </c>
       <c r="E21">
-        <v>0.9964662727524518</v>
+        <v>1.046092441035932</v>
       </c>
       <c r="F21">
-        <v>0.9960193800868294</v>
+        <v>1.053783432632715</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045221780905511</v>
+        <v>1.041175564101188</v>
       </c>
       <c r="J21">
-        <v>1.01168251005704</v>
+        <v>1.045331227788314</v>
       </c>
       <c r="K21">
-        <v>1.040985572798928</v>
+        <v>1.044123391935282</v>
       </c>
       <c r="L21">
-        <v>1.011514903375587</v>
+        <v>1.049635419630599</v>
       </c>
       <c r="M21">
-        <v>1.011076561012915</v>
+        <v>1.057298621245118</v>
       </c>
       <c r="N21">
-        <v>1.006993799228767</v>
+        <v>1.018885836289815</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9763954372383892</v>
+        <v>1.037899839921419</v>
       </c>
       <c r="D22">
-        <v>1.023694748271152</v>
+        <v>1.04008896468802</v>
       </c>
       <c r="E22">
-        <v>0.992152912686064</v>
+        <v>1.045298388655918</v>
       </c>
       <c r="F22">
-        <v>0.9911174910716444</v>
+        <v>1.052867970882281</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043503252681551</v>
+        <v>1.040946592683149</v>
       </c>
       <c r="J22">
-        <v>1.008207792298075</v>
+        <v>1.044715263599075</v>
       </c>
       <c r="K22">
-        <v>1.038810981642249</v>
+        <v>1.043782349532865</v>
       </c>
       <c r="L22">
-        <v>1.007881441352566</v>
+        <v>1.048971925715888</v>
       </c>
       <c r="M22">
-        <v>1.006866990053712</v>
+        <v>1.05651305560017</v>
       </c>
       <c r="N22">
-        <v>1.005792908288621</v>
+        <v>1.018675780542675</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9790560647826367</v>
+        <v>1.038358679675328</v>
       </c>
       <c r="D23">
-        <v>1.025183761951645</v>
+        <v>1.040338798047688</v>
       </c>
       <c r="E23">
-        <v>0.9944518228010394</v>
+        <v>1.045719339399837</v>
       </c>
       <c r="F23">
-        <v>0.9937300557649303</v>
+        <v>1.053353256029522</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044420530666517</v>
+        <v>1.041068146822435</v>
       </c>
       <c r="J23">
-        <v>1.010060693863732</v>
+        <v>1.045041899348887</v>
       </c>
       <c r="K23">
-        <v>1.039970649484618</v>
+        <v>1.04396326558342</v>
       </c>
       <c r="L23">
-        <v>1.009818616535191</v>
+        <v>1.049323723505961</v>
       </c>
       <c r="M23">
-        <v>1.009111035155936</v>
+        <v>1.056929534954568</v>
       </c>
       <c r="N23">
-        <v>1.00643329936259</v>
+        <v>1.018787185008531</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9892016551834559</v>
+        <v>1.040163914665907</v>
       </c>
       <c r="D24">
-        <v>1.030882267408007</v>
+        <v>1.041321190784898</v>
       </c>
       <c r="E24">
-        <v>1.003238567551074</v>
+        <v>1.047376405045241</v>
       </c>
       <c r="F24">
-        <v>1.003716229442971</v>
+        <v>1.05526420229167</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047896894439565</v>
+        <v>1.041542880937104</v>
       </c>
       <c r="J24">
-        <v>1.017121809843541</v>
+        <v>1.046325593612692</v>
       </c>
       <c r="K24">
-        <v>1.044387924604599</v>
+        <v>1.044672787486477</v>
       </c>
       <c r="L24">
-        <v>1.017209048011434</v>
+        <v>1.050707240916126</v>
       </c>
       <c r="M24">
-        <v>1.017678396719891</v>
+        <v>1.058568386684911</v>
       </c>
       <c r="N24">
-        <v>1.008873348573101</v>
+        <v>1.019224669405539</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00036282991496</v>
+        <v>1.042256459892462</v>
       </c>
       <c r="D25">
-        <v>1.03718456455887</v>
+        <v>1.042458750491042</v>
       </c>
       <c r="E25">
-        <v>1.012942829091166</v>
+        <v>1.049299038442541</v>
       </c>
       <c r="F25">
-        <v>1.014747813841452</v>
+        <v>1.057482717557187</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051673935711291</v>
+        <v>1.04208589904563</v>
       </c>
       <c r="J25">
-        <v>1.024877989552757</v>
+        <v>1.047810671172111</v>
       </c>
       <c r="K25">
-        <v>1.049231813975656</v>
+        <v>1.045490499213969</v>
       </c>
       <c r="L25">
-        <v>1.025343492684777</v>
+        <v>1.052309739767059</v>
       </c>
       <c r="M25">
-        <v>1.027121422892562</v>
+        <v>1.060468627888491</v>
       </c>
       <c r="N25">
-        <v>1.011552242878292</v>
+        <v>1.019730075106251</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_133/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_133/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04392369179643</v>
+        <v>1.008831520492335</v>
       </c>
       <c r="D2">
-        <v>1.043364074513166</v>
+        <v>1.041985763050827</v>
       </c>
       <c r="E2">
-        <v>1.050832353931925</v>
+        <v>1.020333252935922</v>
       </c>
       <c r="F2">
-        <v>1.059253070185213</v>
+        <v>1.02315245928809</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042512664174057</v>
+        <v>1.054498626192491</v>
       </c>
       <c r="J2">
-        <v>1.048991534437422</v>
+        <v>1.030751253187974</v>
       </c>
       <c r="K2">
-        <v>1.046138149082773</v>
+        <v>1.052889590636058</v>
       </c>
       <c r="L2">
-        <v>1.053585536458262</v>
+        <v>1.031516398789948</v>
       </c>
       <c r="M2">
-        <v>1.061983079034576</v>
+        <v>1.034298398162136</v>
       </c>
       <c r="N2">
-        <v>1.020131371447747</v>
+        <v>1.013579208050515</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045133271871064</v>
+        <v>1.014755196581308</v>
       </c>
       <c r="D3">
-        <v>1.044020259616436</v>
+        <v>1.045351942462039</v>
       </c>
       <c r="E3">
-        <v>1.051945613268927</v>
+        <v>1.025517065744644</v>
       </c>
       <c r="F3">
-        <v>1.06053905461577</v>
+        <v>1.029050184314441</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042818860456435</v>
+        <v>1.05644908014071</v>
       </c>
       <c r="J3">
-        <v>1.049846871600676</v>
+        <v>1.034851545339798</v>
       </c>
       <c r="K3">
-        <v>1.046605759135271</v>
+        <v>1.055435646522798</v>
       </c>
       <c r="L3">
-        <v>1.054510546737093</v>
+        <v>1.035833538203123</v>
       </c>
       <c r="M3">
-        <v>1.063082062818689</v>
+        <v>1.039324380405782</v>
       </c>
       <c r="N3">
-        <v>1.020421704973886</v>
+        <v>1.014993130023174</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045915515579285</v>
+        <v>1.018491600002429</v>
       </c>
       <c r="D4">
-        <v>1.044444316176806</v>
+        <v>1.047477819763543</v>
       </c>
       <c r="E4">
-        <v>1.052665948803083</v>
+        <v>1.028793041788364</v>
       </c>
       <c r="F4">
-        <v>1.061371442928274</v>
+        <v>1.032778659006628</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043015292385641</v>
+        <v>1.057667129105419</v>
       </c>
       <c r="J4">
-        <v>1.050399382343965</v>
+        <v>1.037433831738494</v>
       </c>
       <c r="K4">
-        <v>1.046907111971836</v>
+        <v>1.057035105804979</v>
       </c>
       <c r="L4">
-        <v>1.055108484987343</v>
+        <v>1.038555949196753</v>
       </c>
       <c r="M4">
-        <v>1.063792894855228</v>
+        <v>1.042496937709354</v>
       </c>
       <c r="N4">
-        <v>1.020609090317929</v>
+        <v>1.015882979545529</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.046244268739252</v>
+        <v>1.020040305709623</v>
       </c>
       <c r="D5">
-        <v>1.044622459960051</v>
+        <v>1.048359469659395</v>
       </c>
       <c r="E5">
-        <v>1.052968775026471</v>
+        <v>1.030152349012233</v>
       </c>
       <c r="F5">
-        <v>1.061721445578018</v>
+        <v>1.034326066126175</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043097466150268</v>
+        <v>1.05816899866811</v>
       </c>
       <c r="J5">
-        <v>1.050631431758793</v>
+        <v>1.038503158317938</v>
       </c>
       <c r="K5">
-        <v>1.047033507948724</v>
+        <v>1.057696410417424</v>
       </c>
       <c r="L5">
-        <v>1.055359714626285</v>
+        <v>1.039684158562055</v>
       </c>
       <c r="M5">
-        <v>1.064091662267457</v>
+        <v>1.043812461626032</v>
       </c>
       <c r="N5">
-        <v>1.020687752561006</v>
+        <v>1.016251309171114</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046299461917217</v>
+        <v>1.020299074782406</v>
       </c>
       <c r="D6">
-        <v>1.044652363469797</v>
+        <v>1.04850680721513</v>
       </c>
       <c r="E6">
-        <v>1.053019620756293</v>
+        <v>1.03037955541979</v>
       </c>
       <c r="F6">
-        <v>1.061780216522937</v>
+        <v>1.03458473406865</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043111239671117</v>
+        <v>1.05825267626053</v>
       </c>
       <c r="J6">
-        <v>1.050670380653661</v>
+        <v>1.038681768613293</v>
       </c>
       <c r="K6">
-        <v>1.047054713216884</v>
+        <v>1.057806805736744</v>
       </c>
       <c r="L6">
-        <v>1.055401888804906</v>
+        <v>1.039872654595237</v>
       </c>
       <c r="M6">
-        <v>1.064141822784857</v>
+        <v>1.044032298757662</v>
       </c>
       <c r="N6">
-        <v>1.020700953589552</v>
+        <v>1.01631282191749</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045919908793571</v>
+        <v>1.018512379297942</v>
       </c>
       <c r="D7">
-        <v>1.044446697052676</v>
+        <v>1.047489647267772</v>
       </c>
       <c r="E7">
-        <v>1.0526699951913</v>
+        <v>1.028811274243627</v>
       </c>
       <c r="F7">
-        <v>1.061376119416775</v>
+        <v>1.032799413065627</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04301639199146</v>
+        <v>1.057673874747223</v>
       </c>
       <c r="J7">
-        <v>1.050402483886502</v>
+        <v>1.037448183154861</v>
       </c>
       <c r="K7">
-        <v>1.046908802031633</v>
+        <v>1.057043985344258</v>
       </c>
       <c r="L7">
-        <v>1.055111842492721</v>
+        <v>1.03857108748281</v>
       </c>
       <c r="M7">
-        <v>1.063796887258831</v>
+        <v>1.042514586328785</v>
       </c>
       <c r="N7">
-        <v>1.020610141856395</v>
+        <v>1.015887923529973</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044332566517252</v>
+        <v>1.010854113800273</v>
       </c>
       <c r="D8">
-        <v>1.043585946640835</v>
+        <v>1.043134477220904</v>
       </c>
       <c r="E8">
-        <v>1.051208589647129</v>
+        <v>1.02210187688283</v>
       </c>
       <c r="F8">
-        <v>1.05968761978449</v>
+        <v>1.025164392244412</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042616496235983</v>
+        <v>1.055167119824754</v>
       </c>
       <c r="J8">
-        <v>1.049280797000884</v>
+        <v>1.032152078922199</v>
       </c>
       <c r="K8">
-        <v>1.04629643303871</v>
+        <v>1.053760222829671</v>
       </c>
       <c r="L8">
-        <v>1.053898274117211</v>
+        <v>1.032990560755913</v>
       </c>
       <c r="M8">
-        <v>1.062354545512511</v>
+        <v>1.036013952120037</v>
       </c>
       <c r="N8">
-        <v>1.020229590576506</v>
+        <v>1.014062383095178</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041532034184943</v>
+        <v>0.9965681978323014</v>
       </c>
       <c r="D9">
-        <v>1.042065088661523</v>
+        <v>1.035038343086491</v>
       </c>
       <c r="E9">
-        <v>1.048633207495822</v>
+        <v>1.009639008893634</v>
       </c>
       <c r="F9">
-        <v>1.056714254407486</v>
+        <v>1.010991651750019</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041898819251203</v>
+        <v>1.050396116549215</v>
       </c>
       <c r="J9">
-        <v>1.047296912838042</v>
+        <v>1.022242726637608</v>
       </c>
       <c r="K9">
-        <v>1.045208007454185</v>
+        <v>1.047587421867818</v>
       </c>
       <c r="L9">
-        <v>1.051755117469668</v>
+        <v>1.022577611986905</v>
       </c>
       <c r="M9">
-        <v>1.059810707972165</v>
+        <v>1.023908879183735</v>
       </c>
       <c r="N9">
-        <v>1.019555320693144</v>
+        <v>1.010642272424812</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039662566536752</v>
+        <v>0.9864340416067513</v>
       </c>
       <c r="D10">
-        <v>1.041048451228609</v>
+        <v>1.029324690289148</v>
       </c>
       <c r="E10">
-        <v>1.046916061135404</v>
+        <v>1.000838402473849</v>
       </c>
       <c r="F10">
-        <v>1.054733226213204</v>
+        <v>1.000988284417967</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041411607306655</v>
+        <v>1.046952219508392</v>
       </c>
       <c r="J10">
-        <v>1.045969315643255</v>
+        <v>1.015196429924286</v>
       </c>
       <c r="K10">
-        <v>1.044476108725169</v>
+        <v>1.043183922555341</v>
       </c>
       <c r="L10">
-        <v>1.050323105981294</v>
+        <v>1.015192535786953</v>
       </c>
       <c r="M10">
-        <v>1.058113201806891</v>
+        <v>1.015339717981518</v>
       </c>
       <c r="N10">
-        <v>1.019103304961541</v>
+        <v>1.00820809316218</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038852454672914</v>
+        <v>0.9818813445399353</v>
       </c>
       <c r="D11">
-        <v>1.040607593155805</v>
+        <v>1.02676745465413</v>
       </c>
       <c r="E11">
-        <v>1.046172443318024</v>
+        <v>0.9968954346508573</v>
       </c>
       <c r="F11">
-        <v>1.053875679804079</v>
+        <v>0.9965071072707249</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041198557590277</v>
+        <v>1.045392166387929</v>
       </c>
       <c r="J11">
-        <v>1.045393244960928</v>
+        <v>1.012027801396814</v>
       </c>
       <c r="K11">
-        <v>1.044157699222684</v>
+        <v>1.041201634710735</v>
       </c>
       <c r="L11">
-        <v>1.04970224110214</v>
+        <v>1.011876136980742</v>
       </c>
       <c r="M11">
-        <v>1.057377756109588</v>
+        <v>1.011495196423461</v>
       </c>
       <c r="N11">
-        <v>1.018906978491213</v>
+        <v>1.007113128218462</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038551447083512</v>
+        <v>0.980163664924555</v>
       </c>
       <c r="D12">
-        <v>1.040443741906396</v>
+        <v>1.02580431438604</v>
       </c>
       <c r="E12">
-        <v>1.045896216294295</v>
+        <v>0.9954094977102108</v>
       </c>
       <c r="F12">
-        <v>1.053557184249825</v>
+        <v>0.994818401887417</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041119107983828</v>
+        <v>1.04480174758806</v>
       </c>
       <c r="J12">
-        <v>1.045179082812338</v>
+        <v>1.010831923669199</v>
       </c>
       <c r="K12">
-        <v>1.044039203475043</v>
+        <v>1.040453297795904</v>
       </c>
       <c r="L12">
-        <v>1.049471503107073</v>
+        <v>1.010625176126465</v>
       </c>
       <c r="M12">
-        <v>1.057104514430049</v>
+        <v>1.010045551017726</v>
       </c>
       <c r="N12">
-        <v>1.018833963372751</v>
+        <v>1.006699839845089</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038616018621598</v>
+        <v>0.9805333493442371</v>
       </c>
       <c r="D13">
-        <v>1.040478892936867</v>
+        <v>1.026011524878184</v>
       </c>
       <c r="E13">
-        <v>1.045955468604645</v>
+        <v>0.9957292273298136</v>
       </c>
       <c r="F13">
-        <v>1.053625501066931</v>
+        <v>0.995181759256981</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04113616438511</v>
+        <v>1.044928900114108</v>
       </c>
       <c r="J13">
-        <v>1.045225029667211</v>
+        <v>1.011089320563037</v>
       </c>
       <c r="K13">
-        <v>1.044064631365193</v>
+        <v>1.040614374440408</v>
       </c>
       <c r="L13">
-        <v>1.049521002700508</v>
+        <v>1.010894397907361</v>
       </c>
       <c r="M13">
-        <v>1.057163128646855</v>
+        <v>1.01035750863532</v>
       </c>
       <c r="N13">
-        <v>1.018849629476815</v>
+        <v>1.006788796053637</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038827575265838</v>
+        <v>0.9817399149262607</v>
       </c>
       <c r="D14">
-        <v>1.040594051135955</v>
+        <v>1.026688116581939</v>
       </c>
       <c r="E14">
-        <v>1.046149610608047</v>
+        <v>0.9967730510787918</v>
       </c>
       <c r="F14">
-        <v>1.053849352155145</v>
+        <v>0.9963680224746885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041191996657753</v>
+        <v>1.04534358918621</v>
       </c>
       <c r="J14">
-        <v>1.045375546011263</v>
+        <v>1.01192934315777</v>
       </c>
       <c r="K14">
-        <v>1.044147908902789</v>
+        <v>1.041140026442065</v>
       </c>
       <c r="L14">
-        <v>1.049683170708912</v>
+        <v>1.011773129725012</v>
       </c>
       <c r="M14">
-        <v>1.057355171193388</v>
+        <v>1.011375818409539</v>
       </c>
       <c r="N14">
-        <v>1.018900944892319</v>
+        <v>1.00707910225296</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038957909494743</v>
+        <v>0.9824797347242266</v>
       </c>
       <c r="D15">
-        <v>1.040664991068235</v>
+        <v>1.027103204478805</v>
       </c>
       <c r="E15">
-        <v>1.046269225957079</v>
+        <v>0.9974133105877611</v>
       </c>
       <c r="F15">
-        <v>1.053987278810492</v>
+        <v>0.997095657965095</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041226355215667</v>
+        <v>1.045597623286935</v>
       </c>
       <c r="J15">
-        <v>1.04546825968567</v>
+        <v>1.012444363815081</v>
       </c>
       <c r="K15">
-        <v>1.044199189221224</v>
+        <v>1.041462282937489</v>
       </c>
       <c r="L15">
-        <v>1.049783071666259</v>
+        <v>1.012311973583341</v>
       </c>
       <c r="M15">
-        <v>1.057473486346058</v>
+        <v>1.01200032105097</v>
       </c>
       <c r="N15">
-        <v>1.018932549976923</v>
+        <v>1.00725708575103</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039716317689242</v>
+        <v>0.9867325658351739</v>
       </c>
       <c r="D16">
-        <v>1.041077695916018</v>
+        <v>1.029492588743106</v>
       </c>
       <c r="E16">
-        <v>1.046965410707186</v>
+        <v>1.001097175375309</v>
       </c>
       <c r="F16">
-        <v>1.054790143839594</v>
+        <v>1.00128238997506</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041425702778963</v>
+        <v>1.047054254697596</v>
       </c>
       <c r="J16">
-        <v>1.046007521869096</v>
+        <v>1.015404141149656</v>
       </c>
       <c r="K16">
-        <v>1.044497209065678</v>
+        <v>1.043313832491181</v>
       </c>
       <c r="L16">
-        <v>1.050364293848806</v>
+        <v>1.015410028611422</v>
       </c>
       <c r="M16">
-        <v>1.058162002002658</v>
+        <v>1.015591919225181</v>
       </c>
       <c r="N16">
-        <v>1.019116321806235</v>
+        <v>1.008279864919651</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040191879123645</v>
+        <v>0.9893549299082915</v>
       </c>
       <c r="D17">
-        <v>1.041336401681378</v>
+        <v>1.030968592614633</v>
       </c>
       <c r="E17">
-        <v>1.047402085670814</v>
+        <v>1.003371563633126</v>
       </c>
       <c r="F17">
-        <v>1.0552938255481</v>
+        <v>1.003867392680643</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041550190085094</v>
+        <v>1.047949125663134</v>
       </c>
       <c r="J17">
-        <v>1.0463454610094</v>
+        <v>1.017228419436227</v>
       </c>
       <c r="K17">
-        <v>1.044683749419313</v>
+        <v>1.044454577062318</v>
       </c>
       <c r="L17">
-        <v>1.050728665217579</v>
+        <v>1.017320734253861</v>
       </c>
       <c r="M17">
-        <v>1.058593777238362</v>
+        <v>1.017807950594049</v>
       </c>
       <c r="N17">
-        <v>1.019231435862619</v>
+        <v>1.008910181908477</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040469206430176</v>
+        <v>0.9908687716875767</v>
       </c>
       <c r="D18">
-        <v>1.041487237896755</v>
+        <v>1.03182155018824</v>
       </c>
       <c r="E18">
-        <v>1.047656782997913</v>
+        <v>1.004685522842874</v>
       </c>
       <c r="F18">
-        <v>1.055587639038045</v>
+        <v>1.005360865981573</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041622600402846</v>
+        <v>1.04846449224681</v>
       </c>
       <c r="J18">
-        <v>1.046542458336429</v>
+        <v>1.018281240309551</v>
       </c>
       <c r="K18">
-        <v>1.044792411249284</v>
+        <v>1.04511271424964</v>
       </c>
       <c r="L18">
-        <v>1.050941120340433</v>
+        <v>1.018423865240743</v>
       </c>
       <c r="M18">
-        <v>1.05884558459895</v>
+        <v>1.019087701083008</v>
       </c>
       <c r="N18">
-        <v>1.019298522020684</v>
+        <v>1.009273914426056</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040563757844924</v>
+        <v>0.9913823372268288</v>
       </c>
       <c r="D19">
-        <v>1.041538658539963</v>
+        <v>1.032111057007772</v>
       </c>
       <c r="E19">
-        <v>1.047743626940445</v>
+        <v>1.005131445263703</v>
       </c>
       <c r="F19">
-        <v>1.055687826070278</v>
+        <v>1.005867723001868</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041647256364906</v>
+        <v>1.048639117500826</v>
       </c>
       <c r="J19">
-        <v>1.0466096095644</v>
+        <v>1.018638352823907</v>
       </c>
       <c r="K19">
-        <v>1.044829437700871</v>
+        <v>1.045335913556538</v>
       </c>
       <c r="L19">
-        <v>1.051013549119085</v>
+        <v>1.018798115941579</v>
       </c>
       <c r="M19">
-        <v>1.058931437710452</v>
+        <v>1.019521930623333</v>
       </c>
       <c r="N19">
-        <v>1.019321386856461</v>
+        <v>1.009397284809605</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040140862072076</v>
+        <v>0.9890752160186838</v>
       </c>
       <c r="D20">
-        <v>1.041308651461977</v>
+        <v>1.030811061141507</v>
       </c>
       <c r="E20">
-        <v>1.047355235400691</v>
+        <v>1.003128862250618</v>
       </c>
       <c r="F20">
-        <v>1.055239782755544</v>
+        <v>1.00359153886756</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041536854571217</v>
+        <v>1.047853800976503</v>
       </c>
       <c r="J20">
-        <v>1.0463092154381</v>
+        <v>1.017033863897163</v>
       </c>
       <c r="K20">
-        <v>1.044663750300425</v>
+        <v>1.044332939504979</v>
       </c>
       <c r="L20">
-        <v>1.050689579547932</v>
+        <v>1.017116916605065</v>
       </c>
       <c r="M20">
-        <v>1.058547455978251</v>
+        <v>1.017571528015902</v>
       </c>
       <c r="N20">
-        <v>1.019219091208887</v>
+        <v>1.008842963285352</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038765279779038</v>
+        <v>0.9813853619703896</v>
       </c>
       <c r="D21">
-        <v>1.040560142589804</v>
+        <v>1.026489250039385</v>
       </c>
       <c r="E21">
-        <v>1.046092441035932</v>
+        <v>0.9964662727524523</v>
       </c>
       <c r="F21">
-        <v>1.053783432632715</v>
+        <v>0.9960193800868297</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041175564101188</v>
+        <v>1.045221780905512</v>
       </c>
       <c r="J21">
-        <v>1.045331227788314</v>
+        <v>1.01168251005704</v>
       </c>
       <c r="K21">
-        <v>1.044123391935282</v>
+        <v>1.040985572798929</v>
       </c>
       <c r="L21">
-        <v>1.049635419630599</v>
+        <v>1.011514903375587</v>
       </c>
       <c r="M21">
-        <v>1.057298621245118</v>
+        <v>1.011076561012916</v>
       </c>
       <c r="N21">
-        <v>1.018885836289815</v>
+        <v>1.006993799228767</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037899839921419</v>
+        <v>0.9763954372383892</v>
       </c>
       <c r="D22">
-        <v>1.04008896468802</v>
+        <v>1.023694748271152</v>
       </c>
       <c r="E22">
-        <v>1.045298388655918</v>
+        <v>0.9921529126860641</v>
       </c>
       <c r="F22">
-        <v>1.052867970882281</v>
+        <v>0.9911174910716442</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040946592683149</v>
+        <v>1.043503252681552</v>
       </c>
       <c r="J22">
-        <v>1.044715263599075</v>
+        <v>1.008207792298075</v>
       </c>
       <c r="K22">
-        <v>1.043782349532865</v>
+        <v>1.03881098164225</v>
       </c>
       <c r="L22">
-        <v>1.048971925715888</v>
+        <v>1.007881441352566</v>
       </c>
       <c r="M22">
-        <v>1.05651305560017</v>
+        <v>1.006866990053712</v>
       </c>
       <c r="N22">
-        <v>1.018675780542675</v>
+        <v>1.005792908288621</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038358679675328</v>
+        <v>0.9790560647826374</v>
       </c>
       <c r="D23">
-        <v>1.040338798047688</v>
+        <v>1.025183761951645</v>
       </c>
       <c r="E23">
-        <v>1.045719339399837</v>
+        <v>0.9944518228010404</v>
       </c>
       <c r="F23">
-        <v>1.053353256029522</v>
+        <v>0.993730055764931</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041068146822435</v>
+        <v>1.044420530666517</v>
       </c>
       <c r="J23">
-        <v>1.045041899348887</v>
+        <v>1.010060693863732</v>
       </c>
       <c r="K23">
-        <v>1.04396326558342</v>
+        <v>1.039970649484618</v>
       </c>
       <c r="L23">
-        <v>1.049323723505961</v>
+        <v>1.009818616535192</v>
       </c>
       <c r="M23">
-        <v>1.056929534954568</v>
+        <v>1.009111035155936</v>
       </c>
       <c r="N23">
-        <v>1.018787185008531</v>
+        <v>1.00643329936259</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040163914665907</v>
+        <v>0.9892016551834557</v>
       </c>
       <c r="D24">
-        <v>1.041321190784898</v>
+        <v>1.030882267408007</v>
       </c>
       <c r="E24">
-        <v>1.047376405045241</v>
+        <v>1.003238567551074</v>
       </c>
       <c r="F24">
-        <v>1.05526420229167</v>
+        <v>1.003716229442971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041542880937104</v>
+        <v>1.047896894439565</v>
       </c>
       <c r="J24">
-        <v>1.046325593612692</v>
+        <v>1.017121809843541</v>
       </c>
       <c r="K24">
-        <v>1.044672787486477</v>
+        <v>1.044387924604599</v>
       </c>
       <c r="L24">
-        <v>1.050707240916126</v>
+        <v>1.017209048011434</v>
       </c>
       <c r="M24">
-        <v>1.058568386684911</v>
+        <v>1.017678396719891</v>
       </c>
       <c r="N24">
-        <v>1.019224669405539</v>
+        <v>1.008873348573101</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042256459892462</v>
+        <v>1.00036282991496</v>
       </c>
       <c r="D25">
-        <v>1.042458750491042</v>
+        <v>1.037184564558869</v>
       </c>
       <c r="E25">
-        <v>1.049299038442541</v>
+        <v>1.012942829091166</v>
       </c>
       <c r="F25">
-        <v>1.057482717557187</v>
+        <v>1.014747813841451</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04208589904563</v>
+        <v>1.051673935711291</v>
       </c>
       <c r="J25">
-        <v>1.047810671172111</v>
+        <v>1.024877989552756</v>
       </c>
       <c r="K25">
-        <v>1.045490499213969</v>
+        <v>1.049231813975656</v>
       </c>
       <c r="L25">
-        <v>1.052309739767059</v>
+        <v>1.025343492684776</v>
       </c>
       <c r="M25">
-        <v>1.060468627888491</v>
+        <v>1.027121422892562</v>
       </c>
       <c r="N25">
-        <v>1.019730075106251</v>
+        <v>1.011552242878292</v>
       </c>
     </row>
   </sheetData>
